--- a/500all/speech_level/speeches_CHRG-114hhrg94099.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Ladies and gentlemen, I call this hearing of the Emerging Threats and Capabilities Subcommittee to order. I am pleased to welcome everyone here today for the hearing on the fiscal year 2016 budget request for information technology [IT] programs for the Department of Defense [DOD].    Information technology systems are critical enablers for our military, enhancing the performance of individuals and units by connecting people and weapon systems together in ways that make them more effective than the sum of their parts. As we look at the budget request, and as the witnesses describe their relevant portions, I would like to ask each of you to address the following questions.    What systems are we investing in? How do these systems enhance the Department of Defense's ability to execute its missions, carry out business operations, and generally improve our ability to conduct warfighting operations? How do we prevent duplication between the services and agencies to make sure that the programs we pursue are deployed on time, on budget, and with the performance capabilities we originally planned?    Today we have invited a panel of dedicated public servants to answer these questions. Our witnesses are, first, the Honorable Terry Halvorsen, acting Chief Information Officer of the Department of Defense; Lieutenant General Robert S. Ferrell, Chief Information Officer/G-6 of the United States Army; Lieutenant General William J. Bender, Chief of Information Dominance and Chief Information Officer of the United States Air Force; Dr. John Zangardi, the acting Department of Navy Chief Information Officer, Deputy Assistant Secretary of the Navy for Command, Control, Communications, Computers, Intelligence, Information Operations and Space--quite a title; Brigadier General Kevin J. Nally, Director of Command, Control, Communications and Computers (C4), the Chief Information Officer of the Marine Corps.    We also know that the Navy would like to submit additional testimony for the record for Vice Admiral Ted Branch, the Deputy Chief of Naval Operations for Information Dominance, who was unable to join us today.    If there are no objections, we will include that in the record.    [The statement of Admiral Branch can be found in the Appendix on page 87.]</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    And I want to thank Mr. Halvorsen, General Ferrell, General Bender, and Dr. Zangardi, and also General Nally. Thank you all for appearing before the subcommittee today and all the work that you do to help our warfighters and the Pentagon be efficient and effective in the IT realm, and for all you do to serve our Nation.    It is one thing that hasn't changed the world of technology since our hearing last year on this topic is the importance of information systems to everything that we do as a nation. IT consumes a massive portion of our defense investment, and cyber continues to be a very high priority for the Department, as well it should be.    However, with this huge investment comes an equal responsibility to make sure that we are conducting proper oversight of those activities. And to that end, I look forward to hearing from the witnesses about the fiscal year 2016 budget request as it relates to our investment in cyberspace, and in securing and modernizing our information systems.    Specifically, Mr. Halvorsen, I would appreciate hearing how the Joint Information Environment [JIE], described as the framework for IT modernization, has evolved and has been implemented. I would also like to hear from each of the services about their understanding and implementation of JIE, i.e., either unilaterally or in conjunction with their sister services, and specific programs associated with this concept.    Conceptually, I support JIE, especially if it provides the ability to better defend the network against outside and insider threats. Yet there is still so much to understand about     This includes obtaining a solid definition and placing policy guidance associated with implementation, building structures for oversight and management within the Department. And perhaps most relevant today, since it is not an official program of record, building an understanding of how we in Congress can conduct our overseer responsibilities.    As part of this dialogue today, I also expect to hear how the Department will utilize the cloud for both classified and unclassified information, and leverage public, private, and government-owned structures.    Cyber is an extensively, extremely personnel-dominated mission space, and thus is a serious concern when the DOD is confronted with difficulties in recruiting and retaining qualified personnel. I hope the witnesses will take this opportunity to articulate the recruiting and retention challenges in depth, and provide recommendations on how the subcommittee can provide new authorities or other assistance in a National Defense Authorization Act [NDAA] to ensure that we have the best and the brightest cyber IT workforce.    Finally, under the leadership of Chairman Thornberry and Ranking Member Smith, the HASC [House Armed Services Committee] is taking up acquisition reform. Our goal is to take a cumbersome process and make it more agile and flexible, allowing for the finest capabilities to be delivered to our warfighters on time and on budget.    An agile and flexible system is especially important for IT and cyber where technologies and enemy capabilities rapidly evolve and change, and multiple procurement cycles can exist within a single budget cycle. I hope our witnesses will speak to the authorities provided in last year's Defense Authorization Act and elaborate on what more we can do.    With that, again, Mr. Chairman, I want to thank you for organizing this hearing, and to our witnesses for being here today. And I look forward to our discussion.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Halvorsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Halvorsen. Good afternoon, Mr. Chairman, Ranking Member, and distinguished members of the subcommittee. I am Terry Halvorsen, the acting Department of Defense Chief Information Officer. As such, I am the senior adviser to the Secretary of Defense for all IT matters.    I am responsible for managing the DOD's IT spend so we get more out of each and every dollar, while making sure that the warfighter has the tools to do the mission. My written statement provides you specific numbers and details, but I would like only to highlight some key issues.    One of my key priorities is implementation of the Joint Regional Security Stacks [JRSS]. That is the foundation of the Joint Information Environment. It replaces our current individualized and localized security architecture and systems with a set of servers, tools, and software that will provide better C2 [command and control], more security, and do this at a lower cost. JRSS is an operational and business imperative for the Department.    I want to talk about how we are improving the alignment of our business processes and IT systems and investments. I partner with the Deputy Chief Management Officer, the revised Defense Business Council. We have been directed by the Secretary of Defense to conduct a complete review of all business processes and IT systems in the fourth estate.    That is point one. We will then move into working with my colleagues to do the same review of the military departments.    We are asking the question, what IT business should DOD be directly in, and at what level should we be in it? And I think that is a key question.    We may need your help in changing the business model, particularly in certain areas. We need to look at how we can expand private-public partnership, particularly in the area of data distribution or data centers.    How can I take, in my case, a maybe a DISA [Defense Information Systems Agency] data center, realign it into a more public-private partnership and get full value out of what can be commercial rate improvements? I think we will need to work some legislation to make that easier for all of us to get done.    We are continuing to approve the accounting procedures and have more transparency in our dollars. For example, we have added codes inside the Department that actually show how much money is being spent on data centers and other key IT areas.    We have contract benchmarked within my own organization that has saved $10 million this year, and within DISA $20 [million], and we have seen comparable amounts of savings just by contract benchmarking against industry and other government sectors. I have directed DISA to create an unclassified commercial e-mail solution for the Department.    You have asked about cloud. We put out some new cloud directive. And based on some recommendation from the Defense Business Board, we have changed the way we engage industry and publish our documentation.    We have just published a joint cloud security and implementation guide. And when I mean joint, that was published with the complete cooperation and involvement of industry from the start. We have revised who can buy cloud, allowing the services now to go direct to the provider, not have to go through DISA, and put DISA in a role of being the security standards.    We continue to involve critical areas in mobility with smartphones, wireless and electronic flight bags. I brought two today.    This is the first dual persona unclassified Blackberry. We are now using this. This Android phone is capable of doing up to secret-level security work on it, and it is basically a modified commercial product. And the prices are coming down.    We need to do a comprehensive review of the DOD cyber workforce. But again, I think this an area where we may need help. Somehow we have got to have better movement between government and private industry in the career fields.    We ought to be able to wake up one day, be a private employee and the next day come in and be a government employee and keep that change. I think that expertise, particularly in the area of security we would gain, is vitally important.    In conclusion, we are trying to drive cultural, business, and technical improvements, innovation into DOD's IT to better support our mission and business operations. That requires teamwork.    I am happy to say I have good relations with General Hawkins, the director of DISA; Frank Kendall, who is a strong partner; Admiral Mike Rogers, who I have known for a long time as NSA [National Security Agency] and USCYBERCOM [United States Cyber Command]; Mr. Eric Rosenbach, principal security adviser; and of course my partner in crime, Dave Tillotson, the acting Deputy Chief Management Officer; my colleagues here to the left.    We are expanding our relations with industry, and certainly we enjoy a great relationship with Congress. So I thank you for your interest and support, and I look forward to taking your questions.    [The prepared statement of Mr. Halvorsen can be found in the Appendix on page 27.]</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t xml:space="preserve">    Mr. Wilson. Thank you very much, General.    Dr. Zangardi.</t>
   </si>
   <si>
-    <t>Zangardi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Zangardi. Good afternoon, Chairman Wilson and Ranking Member Langevin and distinguished members. Thank you for the privilege to speak before you today on the Department of Navy's information technology budget. I will keep my comments brief.    There has been an astounding increase in IT capability over the last few decades. It has important implications for the Department of Navy.    However, unlike traditional weapons systems acquisitions, the Department is not driving the pace of innovation. It is industry. The question is how do we leverage what industry is doing now?    Last week I visited forward-deployed naval forces in both Japan and Guam. I met with marines and sailors. I will briefly share with you different perspectives I gained from those interactions.    I met a young aerographer's mate at the Naval Oceanographic Antisubmarine Warfare Command in Yokosuka, Japan. She was in the top three of her A-school class. Most impressively, she advanced from an E1 to E5 in less than 2 years.    She is reliant on the Navy's overseas network to access tactical applications such as the Naval Integrated Tactical Environmental System, or NITES program. Without access to the network and tactical applications such as NITES, she cannot fully support the warfighter mission with meteorological and mission-planning data, despite all her training.    I also met with senior-level leadership in the Western Pacific. Providing mobile, secure command and control, or C2, over forces is an important concern of the fleet, strike group, and unit commanders. Our overseas expeditionary and afloat networks must be able to respond to this demand signal and deliver capability.    The expectations from the Navy and Marine Corps warfighter are high. The reason we need to harness the industry trends of lower cost and more readily available capability is because information technology provides the means to enable better decision making.    For example, if the Department never improves the network or the tactical applications used by the aerographer's mate, she will not be able to provide the fleet the knowledge products they need to perform their mission or execute it.    Information technology has become the thread that weaves together platforms, tactics, and personnel to execute our strategy. This drives home just how important it is to move forward with transitioning ONE-NET [Outside the Continental United States Navy Enterprise Network] to NMCI [Navy-Marine Corps Intranet], and continuing with installation of Consolidated Afloat Networks and Enterprise Services [CANES] program. Both are absolutely critical in our support of our forward-deployed forces.    Department of Navy programs such as Marine Corps Enterprise Network, Navy Multiband Terminal, Automated Digital Network System, and Mobile User Objective System need your continued support to provide connectivity to the warfighter and afloat and expeditionary warfighter.    In an era of constrained budgets, we need to learn and leverage lessons from industry. It is incumbent on us to reduce redundancy, drive out costs, and deliver innovation.    How we buy more smartly and put technology in the hands of the warfighter? NGEN [Next Generation Enterprise Network]. Our ashore network contract, NGEN, is a true success story that is providing capability now. The NGEN contract delivered $1.2 billion in real savings across the FYDP [Future Years Defense Plan] as a result of competitive market forces.    I believe that we bought smartly. The NGEN contract provides for an enterprise network for both Navy and Marines. NGEN is also how we will deliver JIE and JRSS. We are engaged in the development of JIE and implementation of JRSS.    Data center consolidation and application rationalization are another effort. They are not easy tasks. Industry will tell you that while these are challenging, they are critical components to drive out costs and drive in security.    We are making progress. The desired end state is a single integrated global ashore infrastructure service delivering, leveraging Navy data centers, application hosting, and commercial cloud services. The objective is to drive out cost while still providing the warfighter the information they need when they need it.    Providing increased mobility options to the warfighter is paramount. Putting new industry standard devices that deliver consistent security by separating business data from employee personal information is just starting up, and should be complete by year's end for about 30,000 devices across the Navy.    The Department is focused on innovation. We increasingly realize that information is an asset. The Department's information systems provide an opportunity, and can enable innovation areas of business intelligence and the cloud. We need to rethink how we value and share information. We have to ensure that our processes move at the speed necessary in the information age.    Lastly, Vice Admiral Branch couldn't attend, but wishes to have his statement added to the record. And I would appreciate your consideration there, sir.    The Department of Navy is very proud of our efforts in IT. I am standing by for your questions.    [The prepared statement of Dr. Zangardi can be found in the Appendix on page 62.]</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And I appreciate this panel being here today.    You know one of the things that I always get nervous about when I was over an agency that had computers and every time you have a gateway, a way in, how that opens up. But it is even more troubling as to when you look back at the Snowden incident 2 years ago.    How are we protecting ourselves against an insider attack that could obviously cripple us if that information got out to our adversaries? And I will let anyone take a stab at that one.</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
     <t>400081</t>
   </si>
   <si>
-    <t>Jim Cooper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you.    I am worried we are already in a cyber war, we are just not admitting it. I don't remember from history a time in history of warfare when more eggs have been put in one basket, basically.    Virtually every chip in the world being made in one country that is not here. And the software is so unimaginably complex it is almost impossible for human beings to figure it out. So I am worried that the acronym ``CLOUD'' really stands for the ``Chinese Love Our Uploaded Data.''    I worry that none of the witnesses that I have ever heard calls for a change in the UCMJ, the Uniform Code of Military Justice, so that computer security becomes a value to be preserved because computer hygiene is staggeringly important. And perhaps there has been testimony to that effect. I haven't heard it.    I am worried that our troops would be incapable of working if the Net went down and things go dark. I don't know anybody knows the degree of Internet of Things when facilities could be shut down, as relatively unprotected.    And I don't know. Maybe you have been red-teaming all this. But to me the vulnerability is amazing when virtually every major U.S. company has already been taken down to some extent. Entire countries like Estonia were almost put out of commission years ago by hackers.    I just worry there is more vulnerability here than perhaps this hearing has indicated so far.</t>
   </si>
   <si>
@@ -215,9 +197,6 @@
   </si>
   <si>
     <t>412648</t>
-  </si>
-  <si>
-    <t>Elise M. Stefanik</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you to all of our witnesses for your testimony today.    General Ferrell touched on this briefly, but I wanted to ask each of you to weigh in. In your view, what are the risks and vulnerabilities to our network campaign plans, network modernization efforts, should DOD be forced to execute funding levels at BCA funding levels?</t>
@@ -646,11 +625,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -672,11 +649,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -696,13 +671,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -724,11 +697,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -748,13 +719,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -776,11 +745,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -802,11 +769,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -828,11 +793,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -852,13 +815,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -880,11 +841,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -906,11 +865,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -932,11 +889,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -958,11 +913,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -982,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1010,11 +961,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1036,11 +985,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1060,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1086,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1112,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1138,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1164,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1190,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1216,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1242,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1268,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1296,11 +1225,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1320,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1346,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1372,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1398,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1424,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1450,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1476,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1504,11 +1417,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1528,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1556,11 +1465,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1580,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1606,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1632,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1658,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1684,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>56</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1710,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1736,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1764,11 +1657,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1788,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1814,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1840,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1866,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1892,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1918,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1944,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>67</v>
-      </c>
-      <c r="H52" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1970,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1996,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s">
-        <v>67</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2024,11 +1897,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94099.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Ladies and gentlemen, I call this hearing of the Emerging Threats and Capabilities Subcommittee to order. I am pleased to welcome everyone here today for the hearing on the fiscal year 2016 budget request for information technology [IT] programs for the Department of Defense [DOD].    Information technology systems are critical enablers for our military, enhancing the performance of individuals and units by connecting people and weapon systems together in ways that make them more effective than the sum of their parts. As we look at the budget request, and as the witnesses describe their relevant portions, I would like to ask each of you to address the following questions.    What systems are we investing in? How do these systems enhance the Department of Defense's ability to execute its missions, carry out business operations, and generally improve our ability to conduct warfighting operations? How do we prevent duplication between the services and agencies to make sure that the programs we pursue are deployed on time, on budget, and with the performance capabilities we originally planned?    Today we have invited a panel of dedicated public servants to answer these questions. Our witnesses are, first, the Honorable Terry Halvorsen, acting Chief Information Officer of the Department of Defense; Lieutenant General Robert S. Ferrell, Chief Information Officer/G-6 of the United States Army; Lieutenant General William J. Bender, Chief of Information Dominance and Chief Information Officer of the United States Air Force; Dr. John Zangardi, the acting Department of Navy Chief Information Officer, Deputy Assistant Secretary of the Navy for Command, Control, Communications, Computers, Intelligence, Information Operations and Space--quite a title; Brigadier General Kevin J. Nally, Director of Command, Control, Communications and Computers (C4), the Chief Information Officer of the Marine Corps.    We also know that the Navy would like to submit additional testimony for the record for Vice Admiral Ted Branch, the Deputy Chief of Naval Operations for Information Dominance, who was unable to join us today.    If there are no objections, we will include that in the record.    [The statement of Admiral Branch can be found in the Appendix on page 87.]</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    And I want to thank Mr. Halvorsen, General Ferrell, General Bender, and Dr. Zangardi, and also General Nally. Thank you all for appearing before the subcommittee today and all the work that you do to help our warfighters and the Pentagon be efficient and effective in the IT realm, and for all you do to serve our Nation.    It is one thing that hasn't changed the world of technology since our hearing last year on this topic is the importance of information systems to everything that we do as a nation. IT consumes a massive portion of our defense investment, and cyber continues to be a very high priority for the Department, as well it should be.    However, with this huge investment comes an equal responsibility to make sure that we are conducting proper oversight of those activities. And to that end, I look forward to hearing from the witnesses about the fiscal year 2016 budget request as it relates to our investment in cyberspace, and in securing and modernizing our information systems.    Specifically, Mr. Halvorsen, I would appreciate hearing how the Joint Information Environment [JIE], described as the framework for IT modernization, has evolved and has been implemented. I would also like to hear from each of the services about their understanding and implementation of JIE, i.e., either unilaterally or in conjunction with their sister services, and specific programs associated with this concept.    Conceptually, I support JIE, especially if it provides the ability to better defend the network against outside and insider threats. Yet there is still so much to understand about     This includes obtaining a solid definition and placing policy guidance associated with implementation, building structures for oversight and management within the Department. And perhaps most relevant today, since it is not an official program of record, building an understanding of how we in Congress can conduct our overseer responsibilities.    As part of this dialogue today, I also expect to hear how the Department will utilize the cloud for both classified and unclassified information, and leverage public, private, and government-owned structures.    Cyber is an extensively, extremely personnel-dominated mission space, and thus is a serious concern when the DOD is confronted with difficulties in recruiting and retaining qualified personnel. I hope the witnesses will take this opportunity to articulate the recruiting and retention challenges in depth, and provide recommendations on how the subcommittee can provide new authorities or other assistance in a National Defense Authorization Act [NDAA] to ensure that we have the best and the brightest cyber IT workforce.    Finally, under the leadership of Chairman Thornberry and Ranking Member Smith, the HASC [House Armed Services Committee] is taking up acquisition reform. Our goal is to take a cumbersome process and make it more agile and flexible, allowing for the finest capabilities to be delivered to our warfighters on time and on budget.    An agile and flexible system is especially important for IT and cyber where technologies and enemy capabilities rapidly evolve and change, and multiple procurement cycles can exist within a single budget cycle. I hope our witnesses will speak to the authorities provided in last year's Defense Authorization Act and elaborate on what more we can do.    With that, again, Mr. Chairman, I want to thank you for organizing this hearing, and to our witnesses for being here today. And I look forward to our discussion.</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Halvorsen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Halvorsen. Good afternoon, Mr. Chairman, Ranking Member, and distinguished members of the subcommittee. I am Terry Halvorsen, the acting Department of Defense Chief Information Officer. As such, I am the senior adviser to the Secretary of Defense for all IT matters.    I am responsible for managing the DOD's IT spend so we get more out of each and every dollar, while making sure that the warfighter has the tools to do the mission. My written statement provides you specific numbers and details, but I would like only to highlight some key issues.    One of my key priorities is implementation of the Joint Regional Security Stacks [JRSS]. That is the foundation of the Joint Information Environment. It replaces our current individualized and localized security architecture and systems with a set of servers, tools, and software that will provide better C2 [command and control], more security, and do this at a lower cost. JRSS is an operational and business imperative for the Department.    I want to talk about how we are improving the alignment of our business processes and IT systems and investments. I partner with the Deputy Chief Management Officer, the revised Defense Business Council. We have been directed by the Secretary of Defense to conduct a complete review of all business processes and IT systems in the fourth estate.    That is point one. We will then move into working with my colleagues to do the same review of the military departments.    We are asking the question, what IT business should DOD be directly in, and at what level should we be in it? And I think that is a key question.    We may need your help in changing the business model, particularly in certain areas. We need to look at how we can expand private-public partnership, particularly in the area of data distribution or data centers.    How can I take, in my case, a maybe a DISA [Defense Information Systems Agency] data center, realign it into a more public-private partnership and get full value out of what can be commercial rate improvements? I think we will need to work some legislation to make that easier for all of us to get done.    We are continuing to approve the accounting procedures and have more transparency in our dollars. For example, we have added codes inside the Department that actually show how much money is being spent on data centers and other key IT areas.    We have contract benchmarked within my own organization that has saved $10 million this year, and within DISA $20 [million], and we have seen comparable amounts of savings just by contract benchmarking against industry and other government sectors. I have directed DISA to create an unclassified commercial e-mail solution for the Department.    You have asked about cloud. We put out some new cloud directive. And based on some recommendation from the Defense Business Board, we have changed the way we engage industry and publish our documentation.    We have just published a joint cloud security and implementation guide. And when I mean joint, that was published with the complete cooperation and involvement of industry from the start. We have revised who can buy cloud, allowing the services now to go direct to the provider, not have to go through DISA, and put DISA in a role of being the security standards.    We continue to involve critical areas in mobility with smartphones, wireless and electronic flight bags. I brought two today.    This is the first dual persona unclassified Blackberry. We are now using this. This Android phone is capable of doing up to secret-level security work on it, and it is basically a modified commercial product. And the prices are coming down.    We need to do a comprehensive review of the DOD cyber workforce. But again, I think this an area where we may need help. Somehow we have got to have better movement between government and private industry in the career fields.    We ought to be able to wake up one day, be a private employee and the next day come in and be a government employee and keep that change. I think that expertise, particularly in the area of security we would gain, is vitally important.    In conclusion, we are trying to drive cultural, business, and technical improvements, innovation into DOD's IT to better support our mission and business operations. That requires teamwork.    I am happy to say I have good relations with General Hawkins, the director of DISA; Frank Kendall, who is a strong partner; Admiral Mike Rogers, who I have known for a long time as NSA [National Security Agency] and USCYBERCOM [United States Cyber Command]; Mr. Eric Rosenbach, principal security adviser; and of course my partner in crime, Dave Tillotson, the acting Deputy Chief Management Officer; my colleagues here to the left.    We are expanding our relations with industry, and certainly we enjoy a great relationship with Congress. So I thank you for your interest and support, and I look forward to taking your questions.    [The prepared statement of Mr. Halvorsen can be found in the Appendix on page 27.]</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
     <t xml:space="preserve">    Mr. Wilson. Thank you very much, General.    Dr. Zangardi.</t>
   </si>
   <si>
+    <t>Zangardi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Zangardi. Good afternoon, Chairman Wilson and Ranking Member Langevin and distinguished members. Thank you for the privilege to speak before you today on the Department of Navy's information technology budget. I will keep my comments brief.    There has been an astounding increase in IT capability over the last few decades. It has important implications for the Department of Navy.    However, unlike traditional weapons systems acquisitions, the Department is not driving the pace of innovation. It is industry. The question is how do we leverage what industry is doing now?    Last week I visited forward-deployed naval forces in both Japan and Guam. I met with marines and sailors. I will briefly share with you different perspectives I gained from those interactions.    I met a young aerographer's mate at the Naval Oceanographic Antisubmarine Warfare Command in Yokosuka, Japan. She was in the top three of her A-school class. Most impressively, she advanced from an E1 to E5 in less than 2 years.    She is reliant on the Navy's overseas network to access tactical applications such as the Naval Integrated Tactical Environmental System, or NITES program. Without access to the network and tactical applications such as NITES, she cannot fully support the warfighter mission with meteorological and mission-planning data, despite all her training.    I also met with senior-level leadership in the Western Pacific. Providing mobile, secure command and control, or C2, over forces is an important concern of the fleet, strike group, and unit commanders. Our overseas expeditionary and afloat networks must be able to respond to this demand signal and deliver capability.    The expectations from the Navy and Marine Corps warfighter are high. The reason we need to harness the industry trends of lower cost and more readily available capability is because information technology provides the means to enable better decision making.    For example, if the Department never improves the network or the tactical applications used by the aerographer's mate, she will not be able to provide the fleet the knowledge products they need to perform their mission or execute it.    Information technology has become the thread that weaves together platforms, tactics, and personnel to execute our strategy. This drives home just how important it is to move forward with transitioning ONE-NET [Outside the Continental United States Navy Enterprise Network] to NMCI [Navy-Marine Corps Intranet], and continuing with installation of Consolidated Afloat Networks and Enterprise Services [CANES] program. Both are absolutely critical in our support of our forward-deployed forces.    Department of Navy programs such as Marine Corps Enterprise Network, Navy Multiband Terminal, Automated Digital Network System, and Mobile User Objective System need your continued support to provide connectivity to the warfighter and afloat and expeditionary warfighter.    In an era of constrained budgets, we need to learn and leverage lessons from industry. It is incumbent on us to reduce redundancy, drive out costs, and deliver innovation.    How we buy more smartly and put technology in the hands of the warfighter? NGEN [Next Generation Enterprise Network]. Our ashore network contract, NGEN, is a true success story that is providing capability now. The NGEN contract delivered $1.2 billion in real savings across the FYDP [Future Years Defense Plan] as a result of competitive market forces.    I believe that we bought smartly. The NGEN contract provides for an enterprise network for both Navy and Marines. NGEN is also how we will deliver JIE and JRSS. We are engaged in the development of JIE and implementation of JRSS.    Data center consolidation and application rationalization are another effort. They are not easy tasks. Industry will tell you that while these are challenging, they are critical components to drive out costs and drive in security.    We are making progress. The desired end state is a single integrated global ashore infrastructure service delivering, leveraging Navy data centers, application hosting, and commercial cloud services. The objective is to drive out cost while still providing the warfighter the information they need when they need it.    Providing increased mobility options to the warfighter is paramount. Putting new industry standard devices that deliver consistent security by separating business data from employee personal information is just starting up, and should be complete by year's end for about 30,000 devices across the Navy.    The Department is focused on innovation. We increasingly realize that information is an asset. The Department's information systems provide an opportunity, and can enable innovation areas of business intelligence and the cloud. We need to rethink how we value and share information. We have to ensure that our processes move at the speed necessary in the information age.    Lastly, Vice Admiral Branch couldn't attend, but wishes to have his statement added to the record. And I would appreciate your consideration there, sir.    The Department of Navy is very proud of our efforts in IT. I am standing by for your questions.    [The prepared statement of Dr. Zangardi can be found in the Appendix on page 62.]</t>
   </si>
   <si>
@@ -139,6 +160,12 @@
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And I appreciate this panel being here today.    You know one of the things that I always get nervous about when I was over an agency that had computers and every time you have a gateway, a way in, how that opens up. But it is even more troubling as to when you look back at the Snowden incident 2 years ago.    How are we protecting ourselves against an insider attack that could obviously cripple us if that information got out to our adversaries? And I will let anyone take a stab at that one.</t>
   </si>
   <si>
@@ -172,6 +199,12 @@
     <t>400081</t>
   </si>
   <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you.    I am worried we are already in a cyber war, we are just not admitting it. I don't remember from history a time in history of warfare when more eggs have been put in one basket, basically.    Virtually every chip in the world being made in one country that is not here. And the software is so unimaginably complex it is almost impossible for human beings to figure it out. So I am worried that the acronym ``CLOUD'' really stands for the ``Chinese Love Our Uploaded Data.''    I worry that none of the witnesses that I have ever heard calls for a change in the UCMJ, the Uniform Code of Military Justice, so that computer security becomes a value to be preserved because computer hygiene is staggeringly important. And perhaps there has been testimony to that effect. I haven't heard it.    I am worried that our troops would be incapable of working if the Net went down and things go dark. I don't know anybody knows the degree of Internet of Things when facilities could be shut down, as relatively unprotected.    And I don't know. Maybe you have been red-teaming all this. But to me the vulnerability is amazing when virtually every major U.S. company has already been taken down to some extent. Entire countries like Estonia were almost put out of commission years ago by hackers.    I just worry there is more vulnerability here than perhaps this hearing has indicated so far.</t>
   </si>
   <si>
@@ -197,6 +230,12 @@
   </si>
   <si>
     <t>412648</t>
+  </si>
+  <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you to all of our witnesses for your testimony today.    General Ferrell touched on this briefly, but I wanted to ask each of you to weigh in. In your view, what are the risks and vulnerabilities to our network campaign plans, network modernization efforts, should DOD be forced to execute funding levels at BCA funding levels?</t>
@@ -575,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +622,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,1301 +644,1540 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
       <c r="H36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94099.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Langevin</t>
   </si>
   <si>
@@ -158,6 +167,9 @@
   </si>
   <si>
     <t>412409</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Nugent</t>
@@ -614,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,1537 +659,1668 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
